--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H2">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J2">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N2">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O2">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P2">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q2">
-        <v>400.8144243336007</v>
+        <v>377.8440879349679</v>
       </c>
       <c r="R2">
-        <v>3607.329819002406</v>
+        <v>3400.596791414711</v>
       </c>
       <c r="S2">
-        <v>0.01977005935089862</v>
+        <v>0.02209005925389117</v>
       </c>
       <c r="T2">
-        <v>0.01977005935089862</v>
+        <v>0.02209005925389117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H3">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J3">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>100.095494</v>
       </c>
       <c r="O3">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P3">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q3">
-        <v>546.8322048705916</v>
+        <v>533.2411274780559</v>
       </c>
       <c r="R3">
-        <v>4921.489843835325</v>
+        <v>4799.170147302504</v>
       </c>
       <c r="S3">
-        <v>0.02697234552685747</v>
+        <v>0.03117510232058831</v>
       </c>
       <c r="T3">
-        <v>0.02697234552685747</v>
+        <v>0.03117510232058831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H4">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J4">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N4">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O4">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P4">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q4">
-        <v>710.1784522143568</v>
+        <v>651.8557223910319</v>
       </c>
       <c r="R4">
-        <v>6391.606069929211</v>
+        <v>5866.701501519287</v>
       </c>
       <c r="S4">
-        <v>0.03502935348035612</v>
+        <v>0.03810971771797124</v>
       </c>
       <c r="T4">
-        <v>0.03502935348035611</v>
+        <v>0.03810971771797123</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H5">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J5">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N5">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O5">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P5">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q5">
-        <v>169.6717582277162</v>
+        <v>165.569309009536</v>
       </c>
       <c r="R5">
-        <v>1527.045824049446</v>
+        <v>1490.123781085824</v>
       </c>
       <c r="S5">
-        <v>0.008369012008263859</v>
+        <v>0.009679748773192295</v>
       </c>
       <c r="T5">
-        <v>0.008369012008263859</v>
+        <v>0.009679748773192293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.38931533333334</v>
+        <v>15.981972</v>
       </c>
       <c r="H6">
-        <v>49.16794600000001</v>
+        <v>47.945916</v>
       </c>
       <c r="I6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="J6">
-        <v>0.1272611691689643</v>
+        <v>0.1372507760882863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N6">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O6">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P6">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q6">
-        <v>752.571907499954</v>
+        <v>619.124665044328</v>
       </c>
       <c r="R6">
-        <v>6773.147167499586</v>
+        <v>5572.121985398952</v>
       </c>
       <c r="S6">
-        <v>0.0371203988025882</v>
+        <v>0.03619614802264325</v>
       </c>
       <c r="T6">
-        <v>0.0371203988025882</v>
+        <v>0.03619614802264324</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>23.071008</v>
       </c>
       <c r="H7">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J7">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N7">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O7">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P7">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q7">
-        <v>564.2208110736958</v>
+        <v>545.442325609152</v>
       </c>
       <c r="R7">
-        <v>5077.987299663263</v>
+        <v>4908.980930482368</v>
       </c>
       <c r="S7">
-        <v>0.02783003366329702</v>
+        <v>0.03188842614459576</v>
       </c>
       <c r="T7">
-        <v>0.02783003366329702</v>
+        <v>0.03188842614459576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>23.071008</v>
       </c>
       <c r="H8">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J8">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>100.095494</v>
       </c>
       <c r="O8">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P8">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q8">
-        <v>769.7679809459838</v>
+        <v>769.767980945984</v>
       </c>
       <c r="R8">
-        <v>6927.911828513855</v>
+        <v>6927.911828513857</v>
       </c>
       <c r="S8">
-        <v>0.03796859031464683</v>
+        <v>0.04500327212681337</v>
       </c>
       <c r="T8">
-        <v>0.03796859031464683</v>
+        <v>0.04500327212681336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>23.071008</v>
       </c>
       <c r="H9">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J9">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N9">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O9">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P9">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q9">
-        <v>999.7081890993597</v>
+        <v>940.995803654848</v>
       </c>
       <c r="R9">
-        <v>8997.373701894239</v>
+        <v>8468.962232893633</v>
       </c>
       <c r="S9">
-        <v>0.04931032675516628</v>
+        <v>0.05501383698764185</v>
       </c>
       <c r="T9">
-        <v>0.04931032675516627</v>
+        <v>0.05501383698764184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>23.071008</v>
       </c>
       <c r="H10">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J10">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N10">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O10">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P10">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q10">
-        <v>238.8445405943359</v>
+        <v>239.009982792704</v>
       </c>
       <c r="R10">
-        <v>2149.600865349023</v>
+        <v>2151.089845134336</v>
       </c>
       <c r="S10">
-        <v>0.01178094014714901</v>
+        <v>0.01397334204967383</v>
       </c>
       <c r="T10">
-        <v>0.01178094014714901</v>
+        <v>0.01397334204967382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>23.071008</v>
       </c>
       <c r="H11">
-        <v>69.21302399999999</v>
+        <v>69.213024</v>
       </c>
       <c r="I11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="J11">
-        <v>0.1791437526383466</v>
+        <v>0.1981303529463737</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N11">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O11">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P11">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q11">
-        <v>1059.384858084576</v>
+        <v>893.7464100321922</v>
       </c>
       <c r="R11">
-        <v>9534.463722761182</v>
+        <v>8043.717690289729</v>
       </c>
       <c r="S11">
-        <v>0.05225386175808743</v>
+        <v>0.0522514756376489</v>
       </c>
       <c r="T11">
-        <v>0.05225386175808743</v>
+        <v>0.05225147563764887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H12">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J12">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N12">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O12">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P12">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q12">
-        <v>912.030893389238</v>
+        <v>947.9309681492913</v>
       </c>
       <c r="R12">
-        <v>8208.278040503141</v>
+        <v>8531.378713343622</v>
       </c>
       <c r="S12">
-        <v>0.04498566867232071</v>
+        <v>0.05541929045246912</v>
       </c>
       <c r="T12">
-        <v>0.04498566867232071</v>
+        <v>0.05541929045246911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H13">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J13">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>100.095494</v>
       </c>
       <c r="O13">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P13">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q13">
-        <v>1244.286218419719</v>
+        <v>1337.789300845942</v>
       </c>
       <c r="R13">
-        <v>11198.57596577747</v>
+        <v>12040.10370761347</v>
       </c>
       <c r="S13">
-        <v>0.06137406962976114</v>
+        <v>0.07821174359619666</v>
       </c>
       <c r="T13">
-        <v>0.06137406962976114</v>
+        <v>0.07821174359619665</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H14">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J14">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N14">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O14">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P14">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q14">
-        <v>1615.97150430833</v>
+        <v>1635.368253071986</v>
       </c>
       <c r="R14">
-        <v>14543.74353877497</v>
+        <v>14718.31427764788</v>
       </c>
       <c r="S14">
-        <v>0.07970734237584767</v>
+        <v>0.09560922816002972</v>
       </c>
       <c r="T14">
-        <v>0.07970734237584766</v>
+        <v>0.09560922816002969</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H15">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J15">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N15">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O15">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P15">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q15">
-        <v>386.0786335138246</v>
+        <v>415.3784071175715</v>
       </c>
       <c r="R15">
-        <v>3474.707701624422</v>
+        <v>3738.405664058144</v>
       </c>
       <c r="S15">
-        <v>0.01904322059110656</v>
+        <v>0.02428444408423126</v>
       </c>
       <c r="T15">
-        <v>0.01904322059110656</v>
+        <v>0.02428444408423125</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.292974</v>
+        <v>40.09539033333333</v>
       </c>
       <c r="H16">
-        <v>111.878922</v>
+        <v>120.286171</v>
       </c>
       <c r="I16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="J16">
-        <v>0.2895757007844777</v>
+        <v>0.3443331924754199</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N16">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O16">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P16">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q16">
-        <v>1712.435450091378</v>
+        <v>1553.252947129841</v>
       </c>
       <c r="R16">
-        <v>15411.9190508224</v>
+        <v>13979.27652416856</v>
       </c>
       <c r="S16">
-        <v>0.0844653995154416</v>
+        <v>0.09080848618249318</v>
       </c>
       <c r="T16">
-        <v>0.0844653995154416</v>
+        <v>0.09080848618249314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H17">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I17">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J17">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N17">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O17">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P17">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q17">
-        <v>200.5416214469523</v>
+        <v>208.7896199192226</v>
       </c>
       <c r="R17">
-        <v>1804.874593022571</v>
+        <v>1879.106579273004</v>
       </c>
       <c r="S17">
-        <v>0.009891659375591296</v>
+        <v>0.01220655615076572</v>
       </c>
       <c r="T17">
-        <v>0.009891659375591298</v>
+        <v>0.01220655615076571</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H18">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I18">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J18">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>100.095494</v>
       </c>
       <c r="O18">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P18">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q18">
-        <v>273.5994773803038</v>
+        <v>294.6591355707631</v>
       </c>
       <c r="R18">
-        <v>2462.395296422734</v>
+        <v>2651.932220136868</v>
       </c>
       <c r="S18">
-        <v>0.01349521768129142</v>
+        <v>0.01722678208366939</v>
       </c>
       <c r="T18">
-        <v>0.01349521768129142</v>
+        <v>0.01722678208366939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H19">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I19">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J19">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N19">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O19">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P19">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q19">
-        <v>355.3273776524983</v>
+        <v>360.2033560033328</v>
       </c>
       <c r="R19">
-        <v>3197.946398872485</v>
+        <v>3241.830204029995</v>
       </c>
       <c r="S19">
-        <v>0.01752642349852717</v>
+        <v>0.02105872165699618</v>
       </c>
       <c r="T19">
-        <v>0.01752642349852717</v>
+        <v>0.02105872165699618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H20">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I20">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J20">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N20">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O20">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P20">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q20">
-        <v>84.89277691369011</v>
+        <v>91.4905226844231</v>
       </c>
       <c r="R20">
-        <v>764.0349922232111</v>
+        <v>823.4147041598079</v>
       </c>
       <c r="S20">
-        <v>0.004187312472191266</v>
+        <v>0.005348849252383241</v>
       </c>
       <c r="T20">
-        <v>0.004187312472191267</v>
+        <v>0.005348849252383239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.200153666666667</v>
+        <v>8.831340666666666</v>
       </c>
       <c r="H21">
-        <v>24.600461</v>
+        <v>26.494022</v>
       </c>
       <c r="I21">
-        <v>0.06367326039927532</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="J21">
-        <v>0.06367326039927533</v>
+        <v>0.07584222775512579</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N21">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O21">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P21">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q21">
-        <v>376.538321534689</v>
+        <v>342.1167820931204</v>
       </c>
       <c r="R21">
-        <v>3388.844893812201</v>
+        <v>3079.051038838084</v>
       </c>
       <c r="S21">
-        <v>0.01857264737167417</v>
+        <v>0.02000131861131127</v>
       </c>
       <c r="T21">
-        <v>0.01857264737167418</v>
+        <v>0.02000131861131126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H22">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J22">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.455837</v>
+        <v>23.641894</v>
       </c>
       <c r="N22">
-        <v>73.36751099999999</v>
+        <v>70.92568199999999</v>
       </c>
       <c r="O22">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245457</v>
       </c>
       <c r="P22">
-        <v>0.1553502885444182</v>
+        <v>0.1609466983245456</v>
       </c>
       <c r="Q22">
-        <v>1071.934462443877</v>
+        <v>672.939821011674</v>
       </c>
       <c r="R22">
-        <v>9647.410161994898</v>
+        <v>6056.458389105066</v>
       </c>
       <c r="S22">
-        <v>0.05287286748231055</v>
+        <v>0.03934236632282391</v>
       </c>
       <c r="T22">
-        <v>0.05287286748231055</v>
+        <v>0.0393423663228239</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H23">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J23">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>100.095494</v>
       </c>
       <c r="O23">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="P23">
-        <v>0.2119448194841458</v>
+        <v>0.2271397161392734</v>
       </c>
       <c r="Q23">
-        <v>1462.443090838183</v>
+        <v>949.7017429657579</v>
       </c>
       <c r="R23">
-        <v>13161.98781754364</v>
+        <v>8547.315686691823</v>
       </c>
       <c r="S23">
-        <v>0.07213459633158895</v>
+        <v>0.05552281601200568</v>
       </c>
       <c r="T23">
-        <v>0.07213459633158895</v>
+        <v>0.05552281601200568</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H24">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J24">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.331795</v>
+        <v>40.78693933333333</v>
       </c>
       <c r="N24">
-        <v>129.995385</v>
+        <v>122.360818</v>
       </c>
       <c r="O24">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="P24">
-        <v>0.2752556314632608</v>
+        <v>0.2776648613881589</v>
       </c>
       <c r="Q24">
-        <v>1899.294813751551</v>
+        <v>1160.954179668826</v>
       </c>
       <c r="R24">
-        <v>17093.65332376396</v>
+        <v>10448.58761701944</v>
       </c>
       <c r="S24">
-        <v>0.09368218535336359</v>
+        <v>0.06787335686551997</v>
       </c>
       <c r="T24">
-        <v>0.09368218535336356</v>
+        <v>0.06787335686551996</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H25">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J25">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.35258366666667</v>
+        <v>10.35975466666667</v>
       </c>
       <c r="N25">
-        <v>31.057751</v>
+        <v>31.079264</v>
       </c>
       <c r="O25">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558668</v>
       </c>
       <c r="P25">
-        <v>0.06576249505575693</v>
+        <v>0.07052600392558667</v>
       </c>
       <c r="Q25">
-        <v>453.7686118710065</v>
+        <v>294.878720423648</v>
       </c>
       <c r="R25">
-        <v>4083.917506839059</v>
+        <v>2653.908483812832</v>
       </c>
       <c r="S25">
-        <v>0.02238200983704624</v>
+        <v>0.01723961976610607</v>
       </c>
       <c r="T25">
-        <v>0.02238200983704624</v>
+        <v>0.01723961976610607</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.83143633333333</v>
+        <v>28.463871</v>
       </c>
       <c r="H26">
-        <v>131.494309</v>
+        <v>85.39161300000001</v>
       </c>
       <c r="I26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="J26">
-        <v>0.3403461170089362</v>
+        <v>0.2444434507347945</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.91844699999999</v>
+        <v>38.73894066666667</v>
       </c>
       <c r="N26">
-        <v>137.755341</v>
+        <v>116.216822</v>
       </c>
       <c r="O26">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224355</v>
       </c>
       <c r="P26">
-        <v>0.2916867654524183</v>
+        <v>0.2637227202224354</v>
       </c>
       <c r="Q26">
-        <v>2012.671486206041</v>
+        <v>1102.660209812654</v>
       </c>
       <c r="R26">
-        <v>18114.04337585437</v>
+        <v>9923.941888313888</v>
       </c>
       <c r="S26">
-        <v>0.09927445800462688</v>
+        <v>0.0644652917683389</v>
       </c>
       <c r="T26">
-        <v>0.09927445800462688</v>
+        <v>0.06446529176833887</v>
       </c>
     </row>
   </sheetData>
